--- a/LX_API_TEST/Data/Test_Case.xlsx
+++ b/LX_API_TEST/Data/Test_Case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="720"/>
+    <workbookView windowWidth="24225" windowHeight="12540" tabRatio="720" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="1" r:id="rId1"/>
@@ -5851,10 +5851,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -5885,11 +5885,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5901,6 +5930,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -5910,6 +5962,52 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5926,104 +6024,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6063,7 +6063,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6075,13 +6081,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6093,25 +6105,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6123,7 +6117,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6141,13 +6171,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6159,37 +6207,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6201,43 +6225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6266,6 +6266,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -6283,18 +6301,41 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6314,52 +6355,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -6369,10 +6369,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -6381,133 +6381,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6849,8 +6849,8 @@
   <sheetPr/>
   <dimension ref="A1:M341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12762,14 +12762,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12784,8 +12784,8 @@
   <sheetPr/>
   <dimension ref="A1:M323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -17817,14 +17817,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22808,14 +22808,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22831,7 +22831,7 @@
   <dimension ref="A1:M321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -27782,14 +27782,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -27804,8 +27804,8 @@
   <sheetPr/>
   <dimension ref="A1:M322"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -32860,14 +32860,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32882,8 +32882,8 @@
   <sheetPr/>
   <dimension ref="A1:M351"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -38827,14 +38827,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M1:M33 M35:M1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E1:E33 E35:E1048576 J35:K1048576 J1:K33">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L1:L33 L35:L1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M1:M33 M35:M1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38850,7 +38850,7 @@
   <dimension ref="A1:M345"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -44898,14 +44898,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -44921,7 +44921,7 @@
   <dimension ref="A1:M337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -50610,14 +50610,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55748,14 +55748,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -55771,7 +55771,7 @@
   <dimension ref="A1:M338"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -61168,14 +61168,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61191,7 +61191,7 @@
   <dimension ref="A1:M327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -66467,14 +66467,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -71783,14 +71783,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -71805,8 +71805,8 @@
   <sheetPr/>
   <dimension ref="A1:M338"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -77186,14 +77186,14 @@
     <extLst/>
   </autoFilter>
   <dataValidations count="3">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"N/T,Fail,Pass"</formula1>
+    </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576 J$1:K$1048576">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="L$1:L$1048576">
       <formula1>"全部,测试环境,演示环境,线上环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"N/T,Fail,Pass"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
